--- a/Companies_transpose_edited_2.xlsx
+++ b/Companies_transpose_edited_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Data\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E9E9B3-820A-4E20-B7FF-BAE0DB873C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2767DE5E-1E40-4F4A-8F54-642383A74263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -988,7 +988,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1293,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU583"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ22" sqref="AJ22"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AT4" sqref="AT4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,6 +1303,8 @@
     <col min="21" max="21" width="9.140625" style="3"/>
     <col min="40" max="40" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
